--- a/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
+++ b/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5083</v>
+        <v>0.5327</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5947</v>
+        <v>0.6011</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5232</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5848</v>
+        <v>0.4121</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4288</v>
+        <v>-0.1786</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
+++ b/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5397</v>
+        <v>0.6516</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6303</v>
+        <v>0.7111</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3131</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4133</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1845</v>
+        <v>-0.1396</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
+++ b/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6516</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7111</v>
+        <v>0.6516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3024</v>
+        <v>0.7111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -503,21 +503,51 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4279</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4279</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>uncertain</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>-0.1396</v>
       </c>
     </row>

--- a/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
+++ b/Models/Fed Models/One Model/Correlations/correlations fed.xlsx
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0166</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6516</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7111</v>
+        <v>0.6516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3024</v>
+        <v>0.7111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6832</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>market</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4279</v>
+        <v>0.6832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1396</v>
+        <v>0.4279</v>
       </c>
     </row>
   </sheetData>
